--- a/StudentPopulation.xlsx
+++ b/StudentPopulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,15 @@
     <sheet name="2011" sheetId="6" r:id="rId6"/>
     <sheet name="2010" sheetId="7" r:id="rId7"/>
     <sheet name="2009" sheetId="8" r:id="rId8"/>
-    <sheet name="Each Province" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
+    <sheet name="Each Province" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="286">
   <si>
     <t xml:space="preserve"> 人数</t>
   </si>
@@ -2496,6 +2497,18 @@
   </si>
   <si>
     <t>估计</t>
+  </si>
+  <si>
+    <t>文科</t>
+  </si>
+  <si>
+    <t>理科</t>
+  </si>
+  <si>
+    <t>总数</t>
+  </si>
+  <si>
+    <t>年份</t>
   </si>
 </sst>
 </file>
@@ -2911,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,176 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://edu.sina.com.cn/gaokao/2015-01-09/0957453670.shtml"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>72.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>69.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>65.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>61.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -4080,4 +3924,333 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://edu.sina.com.cn/gaokao/2015-01-09/0957453670.shtml"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>72.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>69.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>65.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>61.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="D2" s="1">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="D3" s="1">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="1">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2012</v>
+      </c>
+      <c r="D5" s="1">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>34.6</v>
+      </c>
+      <c r="C6">
+        <v>38.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C7">
+        <v>41.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" display="http://edu.sina.com.cn/gaokao/2015-01-09/0957453670.shtml"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>